--- a/データベース/テーブル一覧0617.xlsx
+++ b/データベース/テーブル一覧0617.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\データベース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31D7797-FBB1-4263-A27B-99937EF7B89E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D400B85-4EC4-4436-B617-AE198ABD4550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{F11F8D98-A8E3-4488-9F60-BDD9A89E6DCA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F11F8D98-A8E3-4488-9F60-BDD9A89E6DCA}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="56">
   <si>
     <t>usersテーブル</t>
     <phoneticPr fontId="1"/>
@@ -77,13 +77,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目ID</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
@@ -118,10 +111,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>item_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>item</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -208,10 +197,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VARCHAR()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -235,10 +220,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SERIAL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
@@ -262,10 +243,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>REFERENCES items(item_id)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>REFERENCES users(user_id)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -348,7 +325,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UNIQUE</t>
+    <t>REFERENCES items(item)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CHECK (amount &gt;= 0)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -715,7 +696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3D6980-E23F-4575-9D9F-065F4A207F39}">
   <dimension ref="A2:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -730,7 +711,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -744,44 +725,44 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -793,124 +774,99 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036F0C94-4926-4A5F-937D-D10F54B2C368}">
-  <dimension ref="A2:F10"/>
+  <dimension ref="A2:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="6" width="30.625" customWidth="1"/>
+    <col min="2" max="5" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -933,83 +889,86 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1022,9 +981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CA653D-B474-4B4D-BB21-D690D9B93804}">
   <dimension ref="A2:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1033,68 +990,68 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1107,9 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99599B75-F5B5-48BF-A97A-05B6DACA0DAA}">
   <dimension ref="A2:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1118,86 +1073,86 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1220,12 +1175,12 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1237,66 +1192,66 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
         <v>49</v>
       </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/データベース/テーブル一覧0617.xlsx
+++ b/データベース/テーブル一覧0617.xlsx
@@ -5,20 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\データベース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\新しいフォルダー\グループ開発\データベース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D400B85-4EC4-4436-B617-AE198ABD4550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A951E6-C521-43EE-91FC-2D25C6A6F01F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F11F8D98-A8E3-4488-9F60-BDD9A89E6DCA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{F11F8D98-A8E3-4488-9F60-BDD9A89E6DCA}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
     <sheet name="items" sheetId="3" r:id="rId2"/>
-    <sheet name="data" sheetId="4" r:id="rId3"/>
+    <sheet name="Money" sheetId="4" r:id="rId3"/>
     <sheet name="notes" sheetId="6" r:id="rId4"/>
     <sheet name="notices_month" sheetId="5" r:id="rId5"/>
-    <sheet name="notices_line" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
   <si>
     <t>usersテーブル</t>
     <phoneticPr fontId="1"/>
@@ -136,10 +135,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>amount</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -235,66 +230,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>dataテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>notesテーブル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>REFERENCES users(user_id)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DATE</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>TEXT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>記入フォーム表示</t>
-    <rPh sb="0" eb="2">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>display_form</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>outgo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <rPh sb="0" eb="2">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>outgoはTRUEなら支出、FALSEなら収入</t>
-    <rPh sb="12" eb="14">
-      <t>シシュツ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シュウニュウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -313,23 +257,142 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>notices_lineテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DEFAULT TRUE</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CHECK (day &gt;= 1 AND day &lt;= 28)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>REFERENCES items(item)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CHECK (amount &gt;= 0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目ID</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>serial</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOT　NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SERIAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー管理ID</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_manage_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REFERENCES users(user_manage_id)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CHECK (day &gt;= 1 AND day &lt;= 2９)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>income_outgo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CHECK (income_outgo &gt;=1 AND income_outogo &lt;= 2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>income_outgoは収入なら１、支出なら２</t>
+    <rPh sb="13" eb="15">
+      <t>シュウニュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー削除</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_delete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEFAULT　FALSE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目管理ID</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_manage_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目削除</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_delete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REFERENCES items(item_manage_id)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moneyテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input_date</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -694,75 +757,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3D6980-E23F-4575-9D9F-065F4A207F39}">
-  <dimension ref="A2:D6"/>
+  <dimension ref="A2:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="7" width="9" customWidth="1"/>
+    <col min="2" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -774,99 +902,131 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036F0C94-4926-4A5F-937D-D10F54B2C368}">
-  <dimension ref="A2:E9"/>
+  <dimension ref="A2:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="5" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="35.25" customWidth="1"/>
+    <col min="3" max="3" width="34.75" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="47.375" customWidth="1"/>
+    <col min="6" max="6" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
+      <c r="B10" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -878,32 +1038,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E8B666-0EDB-4981-A646-EAC4124243A9}">
-  <dimension ref="A2:E7"/>
+  <dimension ref="A2:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="5" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="36.25" customWidth="1"/>
+    <col min="5" max="5" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -911,64 +1076,69 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -979,79 +1149,103 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CA653D-B474-4B4D-BB21-D690D9B93804}">
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="4" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="34.25" customWidth="1"/>
+    <col min="4" max="5" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1062,196 +1256,126 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99599B75-F5B5-48BF-A97A-05B6DACA0DAA}">
-  <dimension ref="A2:E7"/>
+  <dimension ref="A2:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="5" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="34.5" customWidth="1"/>
+    <col min="4" max="4" width="33.875" customWidth="1"/>
+    <col min="5" max="5" width="36.625" customWidth="1"/>
+    <col min="6" max="6" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>45</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4A78EA-7B81-4AAD-8DAA-8A376ED8D50B}">
-  <dimension ref="A2:E7"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="5" width="30.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
